--- a/qsdsan/systems/bwaise/results/sysA.xlsx
+++ b/qsdsan/systems/bwaise/results/sysA.xlsx
@@ -8,134 +8,235 @@
   </bookViews>
   <sheets>
     <sheet name="Flowsheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Stream table" sheetId="2" r:id="rId2"/>
-    <sheet name="Utilities" sheetId="3" r:id="rId3"/>
-    <sheet name="Design requirements" sheetId="4" r:id="rId4"/>
+    <sheet name="Itemized costs" sheetId="2" r:id="rId2"/>
+    <sheet name="Cash flow" sheetId="3" r:id="rId3"/>
+    <sheet name="Stream table" sheetId="4" r:id="rId4"/>
+    <sheet name="Utilities" sheetId="5" r:id="rId5"/>
+    <sheet name="Design requirements" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="159">
+  <si>
+    <t>Unit operation</t>
+  </si>
+  <si>
+    <t>Purchase cost (10^6 USD)</t>
+  </si>
+  <si>
+    <t>Utility cost (10^6 USD/yr)</t>
+  </si>
+  <si>
+    <t>Installed cost (10^6 USD)</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>Anaerobic lagoon</t>
+  </si>
+  <si>
+    <t>Facultative lagoon</t>
+  </si>
+  <si>
+    <t>Pit latrine</t>
+  </si>
+  <si>
+    <t>Sedimentation tank</t>
+  </si>
+  <si>
+    <t>Trucking</t>
+  </si>
+  <si>
+    <t>Unplanted drying bed</t>
+  </si>
+  <si>
+    <t>Depreciable capital [MM$]</t>
+  </si>
+  <si>
+    <t>Fixed capital investment [MM$]</t>
+  </si>
+  <si>
+    <t>Working capital [MM$]</t>
+  </si>
+  <si>
+    <t>Depreciation [MM$]</t>
+  </si>
+  <si>
+    <t>Loan [MM$]</t>
+  </si>
+  <si>
+    <t>Loan interest payment [MM$]</t>
+  </si>
+  <si>
+    <t>Loan payment [MM$]</t>
+  </si>
+  <si>
+    <t>Loan principal [MM$]</t>
+  </si>
+  <si>
+    <t>Annual operating cost (excluding depreciation) [MM$]</t>
+  </si>
+  <si>
+    <t>Sales [MM$]</t>
+  </si>
+  <si>
+    <t>Tax [MM$]</t>
+  </si>
+  <si>
+    <t>Incentives [MM$]</t>
+  </si>
+  <si>
+    <t>Net earnings [MM$]</t>
+  </si>
+  <si>
+    <t>Cash flow [MM$]</t>
+  </si>
+  <si>
+    <t>Discount factor</t>
+  </si>
+  <si>
+    <t>Net present value (NPV) [MM$]</t>
+  </si>
+  <si>
+    <t>Cumulative NPV [MM$]</t>
+  </si>
+  <si>
+    <t>A_liq_N</t>
+  </si>
+  <si>
+    <t>A2_CH4</t>
+  </si>
+  <si>
+    <t>ws1</t>
+  </si>
+  <si>
+    <t>A5_N2O</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>A7_CH4</t>
+  </si>
+  <si>
+    <t>A8_CH4</t>
+  </si>
+  <si>
+    <t>A_sol_K</t>
+  </si>
+  <si>
+    <t>cleansing_water</t>
+  </si>
   <si>
     <t>feces</t>
   </si>
   <si>
+    <t>A_sol_N</t>
+  </si>
+  <si>
+    <t>A7_N2O</t>
+  </si>
+  <si>
+    <t>A_sol_non_fertilizers</t>
+  </si>
+  <si>
+    <t>desiccant</t>
+  </si>
+  <si>
+    <t>liq</t>
+  </si>
+  <si>
+    <t>anaerobic_treated</t>
+  </si>
+  <si>
+    <t>A8_N2O</t>
+  </si>
+  <si>
     <t>A2_N2O</t>
   </si>
   <si>
-    <t>desiccant</t>
-  </si>
-  <si>
-    <t>anaerobic_treated</t>
-  </si>
-  <si>
-    <t>liq</t>
-  </si>
-  <si>
-    <t>A7_N2O</t>
-  </si>
-  <si>
-    <t>A8_N2O</t>
-  </si>
-  <si>
-    <t>A_sol_N</t>
-  </si>
-  <si>
-    <t>A_sol_non_fertilizers</t>
+    <t>A6_CH4</t>
+  </si>
+  <si>
+    <t>A_CH4</t>
   </si>
   <si>
     <t>A_liq_P</t>
   </si>
   <si>
-    <t>A_CH4</t>
+    <t>A_liq_non_fertilizers</t>
+  </si>
+  <si>
+    <t>dried_sludge</t>
   </si>
   <si>
     <t>mixed_waste</t>
   </si>
   <si>
-    <t>A_liq_non_fertilizers</t>
-  </si>
-  <si>
     <t>sol</t>
   </si>
   <si>
-    <t>dried_sludge</t>
-  </si>
-  <si>
-    <t>A6_CH4</t>
+    <t>liquid_fertilizer</t>
+  </si>
+  <si>
+    <t>transported</t>
+  </si>
+  <si>
+    <t>A5_CH4</t>
   </si>
   <si>
     <t>A6_N2O</t>
   </si>
   <si>
+    <t>A_N2O</t>
+  </si>
+  <si>
+    <t>A_sol_P</t>
+  </si>
+  <si>
     <t>toilet_paper</t>
   </si>
   <si>
     <t>leachate</t>
   </si>
   <si>
-    <t>transported</t>
-  </si>
-  <si>
-    <t>A_N2O</t>
-  </si>
-  <si>
-    <t>liquid_fertilizer</t>
-  </si>
-  <si>
     <t>evaporated</t>
   </si>
   <si>
-    <t>A_sol_P</t>
-  </si>
-  <si>
-    <t>A5_CH4</t>
+    <t>facultative_treated</t>
+  </si>
+  <si>
+    <t>reuse_loss</t>
+  </si>
+  <si>
+    <t>A_liq_K</t>
   </si>
   <si>
     <t>flushing_water</t>
   </si>
   <si>
-    <t>A_liq_K</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>A2_CH4</t>
-  </si>
-  <si>
-    <t>A5_N2O</t>
-  </si>
-  <si>
-    <t>A_liq_N</t>
-  </si>
-  <si>
-    <t>A8_CH4</t>
-  </si>
-  <si>
     <t>conveyance_loss</t>
   </si>
   <si>
-    <t>facultative_treated</t>
-  </si>
-  <si>
-    <t>reuse_loss</t>
-  </si>
-  <si>
-    <t>cleansing_water</t>
-  </si>
-  <si>
-    <t>ws1</t>
-  </si>
-  <si>
-    <t>A_sol_K</t>
-  </si>
-  <si>
-    <t>A7_CH4</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -208,51 +309,33 @@
     <t>HAP</t>
   </si>
   <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>liquid</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
     <t>A12</t>
   </si>
   <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>A9</t>
   </si>
   <si>
@@ -271,9 +354,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>Anaerobic lagoon</t>
-  </si>
-  <si>
     <t>Design</t>
   </si>
   <si>
@@ -313,12 +393,6 @@
     <t>USD/hr</t>
   </si>
   <si>
-    <t>Facultative lagoon</t>
-  </si>
-  <si>
-    <t>Pit latrine</t>
-  </si>
-  <si>
     <t>Purchase cost</t>
   </si>
   <si>
@@ -370,9 +444,6 @@
     <t>USD</t>
   </si>
   <si>
-    <t>Sedimentation tank</t>
-  </si>
-  <si>
     <t>Tank number</t>
   </si>
   <si>
@@ -394,13 +465,7 @@
     <t>Concrete</t>
   </si>
   <si>
-    <t>Trucking</t>
-  </si>
-  <si>
     <t>Parallel trucks</t>
-  </si>
-  <si>
-    <t>Unplanted drying bed</t>
   </si>
   <si>
     <t>Number of covered bed</t>
@@ -844,6 +909,705 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>12.8152176875</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>12.8152176875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B2">
+        <v>12.8152176875</v>
+      </c>
+      <c r="C2">
+        <v>12.8152176875</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>-12.8152176875</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>-12.8152176875</v>
+      </c>
+      <c r="R2">
+        <v>-12.8152176875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1.83129460754375</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1.841778465464011</v>
+      </c>
+      <c r="K3">
+        <v>0.2897047380653726</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>-3.383368334942388</v>
+      </c>
+      <c r="O3">
+        <v>-1.552073727398638</v>
+      </c>
+      <c r="P3">
+        <v>0.9523809523809523</v>
+      </c>
+      <c r="Q3">
+        <v>-1.478165454665369</v>
+      </c>
+      <c r="R3">
+        <v>-14.29338314216537</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3.13844681166875</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1.841778465464011</v>
+      </c>
+      <c r="K4">
+        <v>0.2897047380653726</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>-4.690520539067387</v>
+      </c>
+      <c r="O4">
+        <v>-1.552073727398638</v>
+      </c>
+      <c r="P4">
+        <v>0.9070294784580498</v>
+      </c>
+      <c r="Q4">
+        <v>-1.407776623490828</v>
+      </c>
+      <c r="R4">
+        <v>-15.7011597656562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2.24138157354375</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1.841778465464011</v>
+      </c>
+      <c r="K5">
+        <v>0.2897047380653726</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>-3.793455300942388</v>
+      </c>
+      <c r="O5">
+        <v>-1.552073727398638</v>
+      </c>
+      <c r="P5">
+        <v>0.863837598531476</v>
+      </c>
+      <c r="Q5">
+        <v>-1.340739641419836</v>
+      </c>
+      <c r="R5">
+        <v>-17.04189940707603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1.60062068916875</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1.841778465464011</v>
+      </c>
+      <c r="K6">
+        <v>0.2897047380653726</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>-3.152694416567388</v>
+      </c>
+      <c r="O6">
+        <v>-1.552073727398638</v>
+      </c>
+      <c r="P6">
+        <v>0.8227024747918819</v>
+      </c>
+      <c r="Q6">
+        <v>-1.27689489659032</v>
+      </c>
+      <c r="R6">
+        <v>-18.31879430366635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1.14439893949375</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1.841778465464011</v>
+      </c>
+      <c r="K7">
+        <v>0.2897047380653726</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>-2.696472666892388</v>
+      </c>
+      <c r="O7">
+        <v>-1.552073727398638</v>
+      </c>
+      <c r="P7">
+        <v>0.7835261664684589</v>
+      </c>
+      <c r="Q7">
+        <v>-1.216090377705067</v>
+      </c>
+      <c r="R7">
+        <v>-19.53488468137142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1.143117417725</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1.841778465464011</v>
+      </c>
+      <c r="K8">
+        <v>0.2897047380653726</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>-2.695191145123638</v>
+      </c>
+      <c r="O8">
+        <v>-1.552073727398638</v>
+      </c>
+      <c r="P8">
+        <v>0.7462153966366274</v>
+      </c>
+      <c r="Q8">
+        <v>-1.158181312100063</v>
+      </c>
+      <c r="R8">
+        <v>-20.69306599347149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1.14439893949375</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1.841778465464011</v>
+      </c>
+      <c r="K9">
+        <v>0.2897047380653726</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>-2.696472666892388</v>
+      </c>
+      <c r="O9">
+        <v>-1.552073727398638</v>
+      </c>
+      <c r="P9">
+        <v>0.7106813301301214</v>
+      </c>
+      <c r="Q9">
+        <v>-1.103029821047679</v>
+      </c>
+      <c r="R9">
+        <v>-21.79609581451916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-0</v>
+      </c>
+      <c r="E10">
+        <v>0.5715587088625</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1.841778465464011</v>
+      </c>
+      <c r="K10">
+        <v>0.2897047380653726</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>-2.123632436261138</v>
+      </c>
+      <c r="O10">
+        <v>-1.552073727398638</v>
+      </c>
+      <c r="P10">
+        <v>0.676839362028687</v>
+      </c>
+      <c r="Q10">
+        <v>-1.05050459147398</v>
+      </c>
+      <c r="R10">
+        <v>-22.84660040599314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AN26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -852,492 +1616,492 @@
   <sheetData>
     <row r="2" spans="1:40">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:40">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="L3" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="O3" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="P3" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="Q3" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="R3" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="T3" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="U3" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="V3" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="W3" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="X3" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="Y3" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="Z3" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="AB3" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="AC3" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="AF3" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AG3" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="AH3" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="AI3" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="AJ3" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="AK3" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="AL3" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AM3" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="AN3" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:40">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="P4" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="R4" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="S4" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="T4" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="U4" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="V4" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="X4" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="Z4" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="AA4" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="AB4" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="AC4" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AD4" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="AE4" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="AF4" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="AH4" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="AI4" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="AK4" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="AL4" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="AM4" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="AN4" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="O5" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="Q5" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="R5" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="S5" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="T5" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="U5" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="V5" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="W5" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="X5" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="Y5" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="Z5" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="AA5" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="AB5" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="AC5" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AD5" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AE5" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AF5" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="AG5" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="AH5" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="AI5" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="AL5" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="AM5" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="AN5" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:40">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B6">
         <v>298.15</v>
@@ -1459,340 +2223,340 @@
     </row>
     <row r="7" spans="1:40">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B7">
+        <v>36.05426592540499</v>
+      </c>
+      <c r="C7">
+        <v>42.02830025162718</v>
+      </c>
+      <c r="D7">
+        <v>13793.84568493152</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.05833333333333333</v>
+      </c>
+      <c r="G7">
+        <v>1.399328406158802</v>
+      </c>
+      <c r="H7">
+        <v>3.028903542442585</v>
+      </c>
+      <c r="I7">
+        <v>4.307531168981041</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>0.01041666666666667</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="L7">
+        <v>1.825957475111844</v>
+      </c>
+      <c r="M7">
+        <v>0.2976798748463171</v>
+      </c>
+      <c r="N7">
+        <v>1117.691921899113</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>11801.0167884562</v>
+      </c>
+      <c r="Q7">
         <v>11468.72431455273</v>
       </c>
-      <c r="F7">
-        <v>11801.0167884562</v>
-      </c>
-      <c r="G7">
-        <v>0.2976798748463171</v>
-      </c>
-      <c r="H7">
+      <c r="R7">
         <v>0.01021293548951342</v>
       </c>
-      <c r="I7">
-        <v>1.825957475111844</v>
-      </c>
-      <c r="J7">
-        <v>1117.691921899113</v>
-      </c>
-      <c r="K7">
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>18.65771208211736</v>
+      </c>
+      <c r="U7">
+        <v>70.08777918019197</v>
+      </c>
+      <c r="V7">
         <v>4.934529836990166</v>
       </c>
-      <c r="L7">
-        <v>70.08777918019197</v>
-      </c>
-      <c r="M7">
+      <c r="W7">
+        <v>11278.07439557711</v>
+      </c>
+      <c r="X7">
+        <v>1126.874698533487</v>
+      </c>
+      <c r="Y7">
         <v>14075.35273972603</v>
       </c>
-      <c r="N7">
-        <v>11278.07439557711</v>
-      </c>
-      <c r="O7">
+      <c r="Z7">
         <v>1931.138395890413</v>
       </c>
-      <c r="P7">
-        <v>1126.874698533487</v>
-      </c>
-      <c r="Q7">
-        <v>18.65771208211736</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
+      <c r="AA7">
+        <v>11347.31396883699</v>
+      </c>
+      <c r="AB7">
+        <v>13793.84568493152</v>
+      </c>
+      <c r="AC7">
+        <v>4.97353489784605</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0.3078928103358305</v>
+      </c>
+      <c r="AF7">
+        <v>3.049287990281032</v>
+      </c>
+      <c r="AG7">
         <v>0.000281583</v>
       </c>
-      <c r="T7">
+      <c r="AH7">
         <v>46151.37064015726</v>
       </c>
-      <c r="U7">
-        <v>13793.84568493152</v>
-      </c>
-      <c r="V7">
-        <v>0.3078928103358305</v>
-      </c>
-      <c r="W7">
-        <v>11347.31396883699</v>
-      </c>
-      <c r="X7">
+      <c r="AI7">
         <v>652.6847782998941</v>
       </c>
-      <c r="Y7">
-        <v>3.049287990281032</v>
-      </c>
-      <c r="Z7">
-        <v>4.97353489784605</v>
-      </c>
-      <c r="AA7">
+      <c r="AJ7">
+        <v>11349.64418011353</v>
+      </c>
+      <c r="AK7">
+        <v>2.330211276538965</v>
+      </c>
+      <c r="AL7">
+        <v>28.25077749748643</v>
+      </c>
+      <c r="AM7">
         <v>0.4166666669999999</v>
       </c>
-      <c r="AB7">
-        <v>28.25077749748643</v>
-      </c>
-      <c r="AC7">
-        <v>0.05833333333333333</v>
-      </c>
-      <c r="AD7">
-        <v>42.02830025162718</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>36.05426592540499</v>
-      </c>
-      <c r="AG7">
-        <v>3.028903542442585</v>
-      </c>
-      <c r="AH7">
+      <c r="AN7">
         <v>281.5070547945214</v>
-      </c>
-      <c r="AI7">
-        <v>11349.64418011353</v>
-      </c>
-      <c r="AJ7">
-        <v>2.330211276538965</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>13793.84568493152</v>
-      </c>
-      <c r="AM7">
-        <v>4.307531168981041</v>
-      </c>
-      <c r="AN7">
-        <v>1.399328406158802</v>
       </c>
     </row>
     <row r="8" spans="1:40">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:40">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B9">
+        <v>29.3541254131959</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.1665958663793535</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.3659002285714285</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>0.06574463999999999</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.1947287859832708</v>
+      </c>
+      <c r="Q9">
         <v>0.2003708180227447</v>
       </c>
-      <c r="F9">
-        <v>0.1947287859832708</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
         <v>0.1665958663793535</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0.09326801448885307</v>
+      </c>
+      <c r="AB9">
+        <v>0.1665958663793535</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
         <v>0.03670593194421815</v>
       </c>
-      <c r="U9">
-        <v>0.1665958663793535</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0.09326801448885307</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0.3659002285714285</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>29.3541254131959</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0.09815670052917135</v>
+      </c>
+      <c r="AK9">
+        <v>23.90434799016876</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
         <v>0.1665958663793533</v>
-      </c>
-      <c r="AI9">
-        <v>0.09815670052917135</v>
-      </c>
-      <c r="AJ9">
-        <v>23.90434799016876</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0.1665958663793535</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:40">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="B10">
+        <v>70.6458745868041</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.2110829066666666</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.06457062857142859</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>0.26297856</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.220240893225146</v>
+      </c>
+      <c r="Q10">
         <v>0.2266221078447728</v>
       </c>
-      <c r="F10">
-        <v>0.220240893225146</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>100</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0.162037312354971</v>
+      </c>
+      <c r="Y10">
         <v>0.2110829066666666</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
+      <c r="Z10">
         <v>0.1618623313054371</v>
       </c>
-      <c r="P10">
-        <v>0.162037312354971</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
+      <c r="AA10">
+        <v>0.2244659093667874</v>
+      </c>
+      <c r="AB10">
         <v>0.2110829066666666</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0.2244659093667874</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
       <c r="AC10">
-        <v>0.06457062857142859</v>
+        <v>0</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -1801,364 +2565,364 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>70.6458745868041</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0.2289998203651648</v>
+      </c>
+      <c r="AK10">
+        <v>22.30756073170247</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
         <v>0.2110829066666669</v>
-      </c>
-      <c r="AI10">
-        <v>0.2289998203651648</v>
-      </c>
-      <c r="AJ10">
-        <v>22.30756073170247</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0.2110829066666666</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:40">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.1133648633333332</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.04455919285714285</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>0.15953652</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.1066695060646485</v>
+      </c>
+      <c r="Q11">
         <v>0.1097601265284525</v>
       </c>
-      <c r="F11">
-        <v>0.1066695060646485</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>100</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0.2705968990384974</v>
+      </c>
+      <c r="Y11">
         <v>0.1133648633333333</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
+      <c r="Z11">
         <v>0.157901059642857</v>
       </c>
-      <c r="P11">
-        <v>0.2705968990384974</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
+      <c r="AA11">
+        <v>0.0434863250505081</v>
+      </c>
+      <c r="AB11">
+        <v>0.1133648633333332</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>100</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
         <v>0.007589476234595889</v>
       </c>
-      <c r="U11">
-        <v>0.1133648633333332</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0.0434863250505081</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>100</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0.04455919285714285</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0.04436469062495859</v>
+      </c>
+      <c r="AK11">
+        <v>4.321697846231136</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
         <v>0.1133648633333339</v>
-      </c>
-      <c r="AI11">
-        <v>0.04436469062495859</v>
-      </c>
-      <c r="AJ11">
-        <v>4.321697846231136</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0.1133648633333332</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:40">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.2402147733333332</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.1188905142857143</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>0.23392512</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.2442783066390175</v>
+      </c>
+      <c r="Q12">
         <v>0.2513559763612752</v>
       </c>
-      <c r="F12">
-        <v>0.2442783066390175</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0.3822546707798883</v>
+      </c>
+      <c r="Y12">
         <v>0.2402147733333333</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
+      <c r="Z12">
         <v>0.2230565752380951</v>
       </c>
-      <c r="P12">
-        <v>0.3822546707798883</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
+      <c r="AA12">
+        <v>0.2489644472257596</v>
+      </c>
+      <c r="AB12">
+        <v>0.2402147733333332</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
         <v>0.01947451275169619</v>
       </c>
-      <c r="U12">
-        <v>0.2402147733333332</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0.2489644472257596</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0.253993195905976</v>
+      </c>
+      <c r="AK12">
+        <v>24.7422405575548</v>
+      </c>
+      <c r="AL12">
         <v>100</v>
       </c>
-      <c r="AC12">
-        <v>0.1188905142857143</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
         <v>0.2402147733333323</v>
-      </c>
-      <c r="AI12">
-        <v>0.253993195905976</v>
-      </c>
-      <c r="AJ12">
-        <v>24.7422405575548</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0.2402147733333332</v>
-      </c>
-      <c r="AM12">
-        <v>100</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:40">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.0608333333333333</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.01428571428571429</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>0.1</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.2102146100338443</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.05119647330652067</v>
+      </c>
+      <c r="Q13">
         <v>0.05267982945874502</v>
       </c>
-      <c r="F13">
-        <v>0.05119647330652067</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0.2102146100338443</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0.05249894719724466</v>
+      </c>
+      <c r="X13">
+        <v>0.2085015945479744</v>
+      </c>
+      <c r="Y13">
         <v>0.06083333333333331</v>
       </c>
-      <c r="N13">
-        <v>0.05249894719724466</v>
-      </c>
-      <c r="O13">
+      <c r="Z13">
         <v>0.1216666666666666</v>
       </c>
-      <c r="P13">
-        <v>0.2085015945479744</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
+      <c r="AA13">
+        <v>0.05217860665581671</v>
+      </c>
+      <c r="AB13">
         <v>0.0608333333333333</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0.05217860665581671</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
       <c r="AC13">
-        <v>0.01428571428571429</v>
+        <v>0</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -2173,114 +2937,114 @@
         <v>0</v>
       </c>
       <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0.05323254468704906</v>
+      </c>
+      <c r="AK13">
+        <v>5.185542161630679</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
         <v>0.06083333333333325</v>
-      </c>
-      <c r="AI13">
-        <v>0.05323254468704906</v>
-      </c>
-      <c r="AJ13">
-        <v>5.185542161630679</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0.0608333333333333</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.2947037037037035</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.02</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>0.7599999999999999</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1.600300428130661</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.1929032549771618</v>
+      </c>
+      <c r="Q14">
         <v>0.1984923944544318</v>
       </c>
-      <c r="F14">
-        <v>0.1929032549771618</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1.600300428130661</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0.1978108479580132</v>
+      </c>
+      <c r="X14">
+        <v>1.587259757860452</v>
+      </c>
+      <c r="Y14">
         <v>0.2947037037037035</v>
       </c>
-      <c r="N14">
-        <v>0.1978108479580132</v>
-      </c>
-      <c r="O14">
+      <c r="Z14">
         <v>0.9262116402116389</v>
       </c>
-      <c r="P14">
-        <v>1.587259757860452</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
+      <c r="AA14">
+        <v>0.1966038364364847</v>
+      </c>
+      <c r="AB14">
         <v>0.2947037037037035</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0.1966038364364847</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
       <c r="AC14">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -2295,236 +3059,236 @@
         <v>0</v>
       </c>
       <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0.2005749708455231</v>
+      </c>
+      <c r="AK14">
+        <v>19.53861071271215</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
         <v>0.2947037037037036</v>
-      </c>
-      <c r="AI14">
-        <v>0.2005749708455231</v>
-      </c>
-      <c r="AJ14">
-        <v>19.53861071271215</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>0.2947037037037035</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:40">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>91.11679328808579</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>94.99999999999999</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>85</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>74.68265472433458</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>93.89956205165797</v>
+      </c>
+      <c r="Q15">
         <v>96.6201887680056</v>
       </c>
-      <c r="F15">
-        <v>93.89956205165797</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>74.68265472433458</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>98.25350226762684</v>
+      </c>
+      <c r="X15">
+        <v>74.07407407407406</v>
+      </c>
+      <c r="Y15">
         <v>91.11679328808579</v>
       </c>
-      <c r="N15">
-        <v>98.25350226762684</v>
-      </c>
-      <c r="O15">
+      <c r="Z15">
         <v>77.02227765647899</v>
       </c>
-      <c r="P15">
-        <v>74.07407407407406</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
+      <c r="AA15">
+        <v>97.65397443337616</v>
+      </c>
+      <c r="AB15">
+        <v>91.11679328808579</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
         <v>99.93623007906949</v>
       </c>
-      <c r="U15">
+      <c r="AI15">
+        <v>100</v>
+      </c>
+      <c r="AJ15">
+        <v>97.63392495968235</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>100</v>
+      </c>
+      <c r="AN15">
         <v>91.11679328808579</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>97.65397443337616</v>
-      </c>
-      <c r="X15">
-        <v>100</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>100</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>94.99999999999999</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>91.11679328808579</v>
-      </c>
-      <c r="AI15">
-        <v>97.63392495968235</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>91.11679328808579</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:40">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>6.882830865164499</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>4.371793721428576</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>13.41781515999999</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>23.50683023750091</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>4.022564687918848</v>
+      </c>
+      <c r="Q16">
         <v>1.241734096473468</v>
       </c>
-      <c r="F16">
-        <v>4.022564687918848</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>23.50683023750091</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0.3788174875850964</v>
+      </c>
+      <c r="X16">
+        <v>23.31527569134414</v>
+      </c>
+      <c r="Y16">
         <v>6.8828308651645</v>
       </c>
-      <c r="N16">
-        <v>0.3788174875850964</v>
-      </c>
-      <c r="O16">
+      <c r="Z16">
         <v>21.38702407045631</v>
       </c>
-      <c r="P16">
-        <v>23.31527569134414</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
+      <c r="AA16">
+        <v>0.3765060012495807</v>
+      </c>
+      <c r="AB16">
         <v>6.882830865164499</v>
       </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0.3765060012495807</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
       <c r="AC16">
-        <v>4.371793721428576</v>
+        <v>0</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -2539,30 +3303,30 @@
         <v>0</v>
       </c>
       <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0.3764287002773323</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
         <v>6.882830865164502</v>
-      </c>
-      <c r="AI16">
-        <v>0.3764287002773323</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>6.882830865164499</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:40">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2580,41 +3344,41 @@
         <v>0</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>100</v>
       </c>
-      <c r="H17">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>100</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
       <c r="S17">
         <v>0</v>
       </c>
@@ -2625,34 +3389,34 @@
         <v>0</v>
       </c>
       <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
         <v>100</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2684,13 +3448,13 @@
     </row>
     <row r="18" spans="1:40">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2702,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2717,61 +3481,61 @@
         <v>0</v>
       </c>
       <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>100</v>
+      </c>
+      <c r="U18">
         <v>99.99999999999999</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
         <v>100</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>100</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
       <c r="AD18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -2780,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -2801,12 +3565,12 @@
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:40">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2928,7 +3692,7 @@
     </row>
     <row r="20" spans="1:40">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3050,7 +3814,7 @@
     </row>
     <row r="21" spans="1:40">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3172,7 +3936,7 @@
     </row>
     <row r="22" spans="1:40">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3294,7 +4058,7 @@
     </row>
     <row r="23" spans="1:40">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3303,120 +4067,120 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.9135803999999996</v>
       </c>
       <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>1.067856040227408</v>
+      </c>
+      <c r="Q23">
         <v>1.098795882850504</v>
       </c>
-      <c r="F23">
-        <v>1.067856040227408</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>1.117370449632785</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
         <v>0.9135803999999997</v>
       </c>
-      <c r="N23">
-        <v>1.117370449632785</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>1.110552426150026</v>
+      </c>
+      <c r="AB23">
+        <v>0.9135803999999996</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
         <v>100</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0.9135803999999996</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>1.110552426150026</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
       <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>1.11032441708247</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
         <v>0.9135803999999959</v>
-      </c>
-      <c r="AI23">
-        <v>1.11032441708247</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>0.9135803999999996</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:40">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3538,7 +4302,7 @@
     </row>
     <row r="25" spans="1:40">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3660,7 +4424,7 @@
     </row>
     <row r="26" spans="1:40">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3785,7 +4549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D2"/>
   <sheetViews>
@@ -3795,16 +4559,16 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3812,7 +4576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D71"/>
   <sheetViews>
@@ -3822,22 +4586,22 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -3846,10 +4610,10 @@
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D4">
         <v>4640</v>
@@ -3858,10 +4622,10 @@
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D5">
         <v>65</v>
@@ -3870,10 +4634,10 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -3882,10 +4646,10 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D7">
         <v>2.379487179487179</v>
@@ -3894,10 +4658,10 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D8">
         <v>4539.973846153845</v>
@@ -3906,10 +4670,10 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D9">
         <v>13920</v>
@@ -3917,11 +4681,11 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3929,22 +4693,22 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -3953,10 +4717,10 @@
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D15">
         <v>11530</v>
@@ -3965,10 +4729,10 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D16">
         <v>170</v>
@@ -3977,10 +4741,10 @@
     <row r="17" spans="1:4">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D17">
         <v>50</v>
@@ -3989,10 +4753,10 @@
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D18">
         <v>1.356470588235294</v>
@@ -4001,10 +4765,10 @@
     <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D19">
         <v>11462.02729411765</v>
@@ -4013,10 +4777,10 @@
     <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D20">
         <v>23060</v>
@@ -4024,11 +4788,11 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4036,22 +4800,22 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D25">
         <v>16</v>
@@ -4060,7 +4824,7 @@
     <row r="26" spans="1:4">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D26">
         <v>28541.6875</v>
@@ -4069,10 +4833,10 @@
     <row r="27" spans="1:4">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="D27">
         <v>0.8</v>
@@ -4081,10 +4845,10 @@
     <row r="28" spans="1:4">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D28">
         <v>3.656000000000001</v>
@@ -4093,10 +4857,10 @@
     <row r="29" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="D29">
         <v>0.8</v>
@@ -4105,7 +4869,7 @@
     <row r="30" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="D30">
         <v>4.57</v>
@@ -4114,10 +4878,10 @@
     <row r="31" spans="1:4">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D31">
         <v>19979181.25</v>
@@ -4126,10 +4890,10 @@
     <row r="32" spans="1:4">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D32">
         <v>90545649.425</v>
@@ -4138,10 +4902,10 @@
     <row r="33" spans="1:4">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D33">
         <v>36533360</v>
@@ -4150,10 +4914,10 @@
     <row r="34" spans="1:4">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D34">
         <v>6473254.725</v>
@@ -4162,10 +4926,10 @@
     <row r="35" spans="1:4">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D35">
         <v>287700.21</v>
@@ -4174,10 +4938,10 @@
     <row r="36" spans="1:4">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D36">
         <v>958287.1578125</v>
@@ -4186,10 +4950,10 @@
     <row r="37" spans="1:4">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D37">
         <v>5422.920625</v>
@@ -4198,10 +4962,10 @@
     <row r="38" spans="1:4">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D38">
         <v>104348.4095</v>
@@ -4209,13 +4973,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D39">
         <v>12815217.6875</v>
@@ -4223,11 +4987,11 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="D40">
         <v>73.14621967751141</v>
@@ -4235,22 +4999,22 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -4259,10 +5023,10 @@
     <row r="45" spans="1:4">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D45">
         <v>1250</v>
@@ -4271,10 +5035,10 @@
     <row r="46" spans="1:4">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D46">
         <v>3.080328427584411</v>
@@ -4283,10 +5047,10 @@
     <row r="47" spans="1:4">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" t="s">
         <v>121</v>
-      </c>
-      <c r="C47" t="s">
-        <v>95</v>
       </c>
       <c r="D47">
         <v>11.08918233930388</v>
@@ -4295,10 +5059,10 @@
     <row r="48" spans="1:4">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D48">
         <v>36.59430171970281</v>
@@ -4307,10 +5071,10 @@
     <row r="49" spans="1:4">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="D49">
         <v>863.6885623511567</v>
@@ -4319,10 +5083,10 @@
     <row r="50" spans="1:4">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D50">
         <v>433.0444991846079</v>
@@ -4331,10 +5095,10 @@
     <row r="51" spans="1:4">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D51">
         <v>1451.211728244062</v>
@@ -4342,11 +5106,11 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -4354,22 +5118,22 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D56">
         <v>28541.6875</v>
@@ -4377,11 +5141,11 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="D57">
         <v>123.7740667045952</v>
@@ -4389,22 +5153,22 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="D61">
         <v>19</v>
@@ -4413,10 +5177,10 @@
     <row r="62" spans="1:4">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D62">
         <v>142.8</v>
@@ -4425,7 +5189,7 @@
     <row r="63" spans="1:4">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="D63">
         <v>30</v>
@@ -4434,10 +5198,10 @@
     <row r="64" spans="1:4">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D64">
         <v>130.2</v>
@@ -4446,7 +5210,7 @@
     <row r="65" spans="1:4">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="D65">
         <v>19</v>
@@ -4455,10 +5219,10 @@
     <row r="66" spans="1:4">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D66">
         <v>357</v>
@@ -4467,7 +5231,7 @@
     <row r="67" spans="1:4">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -4476,10 +5240,10 @@
     <row r="68" spans="1:4">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D68">
         <v>259.1573099999999</v>
@@ -4488,10 +5252,10 @@
     <row r="69" spans="1:4">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="C69" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="D69">
         <v>9624.423774272149</v>
@@ -4500,10 +5264,10 @@
     <row r="70" spans="1:4">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="C70" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D70">
         <v>1463</v>
@@ -4511,11 +5275,11 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="D71">
         <v>0</v>

--- a/qsdsan/systems/bwaise/results/sysA.xlsx
+++ b/qsdsan/systems/bwaise/results/sysA.xlsx
@@ -120,123 +120,123 @@
     <t>Cumulative NPV [MM$]</t>
   </si>
   <si>
+    <t>A8_N2O</t>
+  </si>
+  <si>
+    <t>A2_N2O</t>
+  </si>
+  <si>
+    <t>liq</t>
+  </si>
+  <si>
+    <t>feces</t>
+  </si>
+  <si>
+    <t>desiccant</t>
+  </si>
+  <si>
+    <t>anaerobic_treated</t>
+  </si>
+  <si>
+    <t>A7_N2O</t>
+  </si>
+  <si>
+    <t>A_sol_N</t>
+  </si>
+  <si>
+    <t>A_sol_non_fertilizers</t>
+  </si>
+  <si>
+    <t>A6_CH4</t>
+  </si>
+  <si>
+    <t>A_CH4</t>
+  </si>
+  <si>
+    <t>mixed_waste</t>
+  </si>
+  <si>
+    <t>sol</t>
+  </si>
+  <si>
+    <t>dried_sludge</t>
+  </si>
+  <si>
+    <t>A_liq_non_fertilizers</t>
+  </si>
+  <si>
+    <t>A_liq_P</t>
+  </si>
+  <si>
+    <t>toilet_paper</t>
+  </si>
+  <si>
+    <t>liquid_fertilizer</t>
+  </si>
+  <si>
+    <t>evaporated</t>
+  </si>
+  <si>
+    <t>leachate</t>
+  </si>
+  <si>
+    <t>A6_N2O</t>
+  </si>
+  <si>
+    <t>transported</t>
+  </si>
+  <si>
+    <t>A_N2O</t>
+  </si>
+  <si>
+    <t>A5_CH4</t>
+  </si>
+  <si>
+    <t>A_sol_P</t>
+  </si>
+  <si>
+    <t>flushing_water</t>
+  </si>
+  <si>
+    <t>A_liq_K</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>A2_CH4</t>
+  </si>
+  <si>
+    <t>A8_CH4</t>
+  </si>
+  <si>
     <t>A_liq_N</t>
   </si>
   <si>
-    <t>A2_CH4</t>
+    <t>facultative_treated</t>
+  </si>
+  <si>
+    <t>reuse_loss</t>
+  </si>
+  <si>
+    <t>A5_N2O</t>
+  </si>
+  <si>
+    <t>conveyance_loss</t>
+  </si>
+  <si>
+    <t>cleansing_water</t>
   </si>
   <si>
     <t>ws1</t>
   </si>
   <si>
-    <t>A5_N2O</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
     <t>A7_CH4</t>
   </si>
   <si>
-    <t>A8_CH4</t>
-  </si>
-  <si>
     <t>A_sol_K</t>
   </si>
   <si>
-    <t>cleansing_water</t>
-  </si>
-  <si>
-    <t>feces</t>
-  </si>
-  <si>
-    <t>A_sol_N</t>
-  </si>
-  <si>
-    <t>A7_N2O</t>
-  </si>
-  <si>
-    <t>A_sol_non_fertilizers</t>
-  </si>
-  <si>
-    <t>desiccant</t>
-  </si>
-  <si>
-    <t>liq</t>
-  </si>
-  <si>
-    <t>anaerobic_treated</t>
-  </si>
-  <si>
-    <t>A8_N2O</t>
-  </si>
-  <si>
-    <t>A2_N2O</t>
-  </si>
-  <si>
-    <t>A6_CH4</t>
-  </si>
-  <si>
-    <t>A_CH4</t>
-  </si>
-  <si>
-    <t>A_liq_P</t>
-  </si>
-  <si>
-    <t>A_liq_non_fertilizers</t>
-  </si>
-  <si>
-    <t>dried_sludge</t>
-  </si>
-  <si>
-    <t>mixed_waste</t>
-  </si>
-  <si>
-    <t>sol</t>
-  </si>
-  <si>
-    <t>liquid_fertilizer</t>
-  </si>
-  <si>
-    <t>transported</t>
-  </si>
-  <si>
-    <t>A5_CH4</t>
-  </si>
-  <si>
-    <t>A6_N2O</t>
-  </si>
-  <si>
-    <t>A_N2O</t>
-  </si>
-  <si>
-    <t>A_sol_P</t>
-  </si>
-  <si>
-    <t>toilet_paper</t>
-  </si>
-  <si>
-    <t>leachate</t>
-  </si>
-  <si>
-    <t>evaporated</t>
-  </si>
-  <si>
-    <t>facultative_treated</t>
-  </si>
-  <si>
-    <t>reuse_loss</t>
-  </si>
-  <si>
-    <t>A_liq_K</t>
-  </si>
-  <si>
-    <t>flushing_water</t>
-  </si>
-  <si>
-    <t>conveyance_loss</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -309,34 +309,34 @@
     <t>HAP</t>
   </si>
   <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
     <t>A13</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>liquid</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>gas</t>
+    <t>A9</t>
   </si>
   <si>
     <t>A4</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>A9</t>
   </si>
   <si>
     <t>Unit Operation</t>
@@ -1203,7 +1203,7 @@
         <v>0.9523809523809523</v>
       </c>
       <c r="Q3">
-        <v>-1.478165454665369</v>
+        <v>-1.47816545466537</v>
       </c>
       <c r="R3">
         <v>-14.29338314216537</v>
@@ -1738,121 +1738,121 @@
         <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
         <v>101</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
         <v>103</v>
       </c>
-      <c r="G3" t="s">
+      <c r="Q3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S3" t="s">
+        <v>104</v>
+      </c>
+      <c r="T3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="AH3" t="s">
         <v>104</v>
       </c>
-      <c r="J3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="AI3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM3" t="s">
         <v>5</v>
       </c>
-      <c r="N3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O3" t="s">
-        <v>97</v>
-      </c>
-      <c r="P3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U3" t="s">
-        <v>99</v>
-      </c>
-      <c r="V3" t="s">
-        <v>96</v>
-      </c>
-      <c r="W3" t="s">
-        <v>96</v>
-      </c>
-      <c r="X3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>97</v>
-      </c>
       <c r="AN3" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -1860,121 +1860,121 @@
         <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" t="s">
+        <v>101</v>
+      </c>
+      <c r="P4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>100</v>
+      </c>
+      <c r="R4" t="s">
         <v>6</v>
       </c>
-      <c r="K4" t="s">
+      <c r="S4" t="s">
+        <v>103</v>
+      </c>
+      <c r="T4" t="s">
+        <v>100</v>
+      </c>
+      <c r="U4" t="s">
+        <v>100</v>
+      </c>
+      <c r="V4" t="s">
+        <v>96</v>
+      </c>
+      <c r="W4" t="s">
+        <v>105</v>
+      </c>
+      <c r="X4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA4" t="s">
         <v>6</v>
       </c>
-      <c r="L4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M4" t="s">
-        <v>102</v>
-      </c>
-      <c r="N4" t="s">
-        <v>97</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="AB4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC4" t="s">
         <v>6</v>
-      </c>
-      <c r="P4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R4" t="s">
-        <v>102</v>
-      </c>
-      <c r="S4" t="s">
-        <v>102</v>
-      </c>
-      <c r="T4" t="s">
-        <v>99</v>
-      </c>
-      <c r="U4" t="s">
-        <v>97</v>
-      </c>
-      <c r="V4" t="s">
-        <v>97</v>
-      </c>
-      <c r="W4" t="s">
-        <v>97</v>
-      </c>
-      <c r="X4" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>99</v>
       </c>
       <c r="AD4" t="s">
         <v>102</v>
       </c>
       <c r="AE4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AF4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK4" t="s">
         <v>6</v>
       </c>
-      <c r="AH4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>97</v>
-      </c>
       <c r="AL4" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="AM4" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="AN4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1982,25 +1982,25 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
         <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
         <v>98</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s">
         <v>98</v>
@@ -2009,13 +2009,13 @@
         <v>98</v>
       </c>
       <c r="K5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" t="s">
         <v>98</v>
-      </c>
-      <c r="L5" t="s">
-        <v>98</v>
-      </c>
-      <c r="M5" t="s">
-        <v>100</v>
       </c>
       <c r="N5" t="s">
         <v>98</v>
@@ -2030,28 +2030,28 @@
         <v>98</v>
       </c>
       <c r="R5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="U5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W5" t="s">
         <v>98</v>
       </c>
       <c r="X5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z5" t="s">
         <v>98</v>
@@ -2063,13 +2063,13 @@
         <v>98</v>
       </c>
       <c r="AC5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AD5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AE5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AF5" t="s">
         <v>98</v>
@@ -2081,7 +2081,7 @@
         <v>98</v>
       </c>
       <c r="AI5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s">
         <v>98</v>
@@ -2093,7 +2093,7 @@
         <v>98</v>
       </c>
       <c r="AM5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AN5" t="s">
         <v>98</v>
@@ -2226,121 +2226,121 @@
         <v>76</v>
       </c>
       <c r="B7">
+        <v>0.01021293548951342</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>11801.0167884562</v>
+      </c>
+      <c r="E7">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>11468.72431455273</v>
+      </c>
+      <c r="H7">
+        <v>0.2976798748463171</v>
+      </c>
+      <c r="I7">
+        <v>1.825957475111844</v>
+      </c>
+      <c r="J7">
+        <v>1117.691921899113</v>
+      </c>
+      <c r="K7">
+        <v>18.65771208211736</v>
+      </c>
+      <c r="L7">
+        <v>70.08777918019197</v>
+      </c>
+      <c r="M7">
+        <v>14075.35273972603</v>
+      </c>
+      <c r="N7">
+        <v>1931.138395890413</v>
+      </c>
+      <c r="O7">
+        <v>1126.874698533487</v>
+      </c>
+      <c r="P7">
+        <v>11278.07439557711</v>
+      </c>
+      <c r="Q7">
+        <v>4.934529836990166</v>
+      </c>
+      <c r="R7">
+        <v>0.000281583</v>
+      </c>
+      <c r="S7">
+        <v>11347.31396883699</v>
+      </c>
+      <c r="T7">
+        <v>652.6847782998941</v>
+      </c>
+      <c r="U7">
+        <v>46151.37064015726</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>13793.84568493152</v>
+      </c>
+      <c r="X7">
+        <v>0.3078928103358305</v>
+      </c>
+      <c r="Y7">
+        <v>4.97353489784605</v>
+      </c>
+      <c r="Z7">
+        <v>3.049287990281032</v>
+      </c>
+      <c r="AA7">
+        <v>0.4166666669999999</v>
+      </c>
+      <c r="AB7">
+        <v>28.25077749748643</v>
+      </c>
+      <c r="AC7">
+        <v>0.05833333333333333</v>
+      </c>
+      <c r="AD7">
+        <v>42.02830025162718</v>
+      </c>
+      <c r="AE7">
+        <v>3.028903542442585</v>
+      </c>
+      <c r="AF7">
         <v>36.05426592540499</v>
       </c>
-      <c r="C7">
-        <v>42.02830025162718</v>
-      </c>
-      <c r="D7">
+      <c r="AG7">
+        <v>11349.64418011353</v>
+      </c>
+      <c r="AH7">
+        <v>2.330211276538965</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>281.5070547945214</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
         <v>13793.84568493152</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.05833333333333333</v>
-      </c>
-      <c r="G7">
+      <c r="AM7">
         <v>1.399328406158802</v>
       </c>
-      <c r="H7">
-        <v>3.028903542442585</v>
-      </c>
-      <c r="I7">
+      <c r="AN7">
         <v>4.307531168981041</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0.01041666666666667</v>
-      </c>
-      <c r="L7">
-        <v>1.825957475111844</v>
-      </c>
-      <c r="M7">
-        <v>0.2976798748463171</v>
-      </c>
-      <c r="N7">
-        <v>1117.691921899113</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>11801.0167884562</v>
-      </c>
-      <c r="Q7">
-        <v>11468.72431455273</v>
-      </c>
-      <c r="R7">
-        <v>0.01021293548951342</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>18.65771208211736</v>
-      </c>
-      <c r="U7">
-        <v>70.08777918019197</v>
-      </c>
-      <c r="V7">
-        <v>4.934529836990166</v>
-      </c>
-      <c r="W7">
-        <v>11278.07439557711</v>
-      </c>
-      <c r="X7">
-        <v>1126.874698533487</v>
-      </c>
-      <c r="Y7">
-        <v>14075.35273972603</v>
-      </c>
-      <c r="Z7">
-        <v>1931.138395890413</v>
-      </c>
-      <c r="AA7">
-        <v>11347.31396883699</v>
-      </c>
-      <c r="AB7">
-        <v>13793.84568493152</v>
-      </c>
-      <c r="AC7">
-        <v>4.97353489784605</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0.3078928103358305</v>
-      </c>
-      <c r="AF7">
-        <v>3.049287990281032</v>
-      </c>
-      <c r="AG7">
-        <v>0.000281583</v>
-      </c>
-      <c r="AH7">
-        <v>46151.37064015726</v>
-      </c>
-      <c r="AI7">
-        <v>652.6847782998941</v>
-      </c>
-      <c r="AJ7">
-        <v>11349.64418011353</v>
-      </c>
-      <c r="AK7">
-        <v>2.330211276538965</v>
-      </c>
-      <c r="AL7">
-        <v>28.25077749748643</v>
-      </c>
-      <c r="AM7">
-        <v>0.4166666669999999</v>
-      </c>
-      <c r="AN7">
-        <v>281.5070547945214</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -2353,121 +2353,121 @@
         <v>78</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.1947287859832708</v>
+      </c>
+      <c r="E9">
+        <v>0.06574463999999999</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.2003708180227447</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0.1665958663793535</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.09326801448885307</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0.03670593194421815</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0.1665958663793535</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0.3659002285714285</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
         <v>29.3541254131959</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="AG9">
+        <v>0.09815670052917135</v>
+      </c>
+      <c r="AH9">
+        <v>23.90434799016876</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0.1665958663793533</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
         <v>0.1665958663793535</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.3659002285714285</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0.06574463999999999</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0.1947287859832708</v>
-      </c>
-      <c r="Q9">
-        <v>0.2003708180227447</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0.1665958663793535</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0.09326801448885307</v>
-      </c>
-      <c r="AB9">
-        <v>0.1665958663793535</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0.03670593194421815</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0.09815670052917135</v>
-      </c>
-      <c r="AK9">
-        <v>23.90434799016876</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
       <c r="AM9">
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>0.1665958663793533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -2475,121 +2475,121 @@
         <v>79</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.220240893225146</v>
+      </c>
+      <c r="E10">
+        <v>0.26297856</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.2266221078447728</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0.2110829066666666</v>
+      </c>
+      <c r="N10">
+        <v>0.1618623313054371</v>
+      </c>
+      <c r="O10">
+        <v>0.162037312354971</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.2244659093667874</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0.2110829066666666</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0.06457062857142859</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
         <v>70.6458745868041</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="AG10">
+        <v>0.2289998203651648</v>
+      </c>
+      <c r="AH10">
+        <v>22.30756073170247</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0.2110829066666669</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
         <v>0.2110829066666666</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.06457062857142859</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0.26297856</v>
-      </c>
-      <c r="L10">
-        <v>100</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0.220240893225146</v>
-      </c>
-      <c r="Q10">
-        <v>0.2266221078447728</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0.162037312354971</v>
-      </c>
-      <c r="Y10">
-        <v>0.2110829066666666</v>
-      </c>
-      <c r="Z10">
-        <v>0.1618623313054371</v>
-      </c>
-      <c r="AA10">
-        <v>0.2244659093667874</v>
-      </c>
-      <c r="AB10">
-        <v>0.2110829066666666</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0.2289998203651648</v>
-      </c>
-      <c r="AK10">
-        <v>22.30756073170247</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
       <c r="AM10">
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>0.2110829066666669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -2603,115 +2603,115 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>0.1066695060646485</v>
+      </c>
+      <c r="E11">
+        <v>0.15953652</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.1097601265284525</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0.1133648633333333</v>
+      </c>
+      <c r="N11">
+        <v>0.157901059642857</v>
+      </c>
+      <c r="O11">
+        <v>0.2705968990384974</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>100</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.0434863250505081</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0.007589476234595889</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
         <v>0.1133648633333332</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>100</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
         <v>0.04455919285714285</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0.15953652</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0.1066695060646485</v>
-      </c>
-      <c r="Q11">
-        <v>0.1097601265284525</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>100</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0.2705968990384974</v>
-      </c>
-      <c r="Y11">
-        <v>0.1133648633333333</v>
-      </c>
-      <c r="Z11">
-        <v>0.157901059642857</v>
-      </c>
-      <c r="AA11">
-        <v>0.0434863250505081</v>
-      </c>
-      <c r="AB11">
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0.04436469062495859</v>
+      </c>
+      <c r="AH11">
+        <v>4.321697846231136</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0.1133648633333339</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
         <v>0.1133648633333332</v>
       </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>100</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0.007589476234595889</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0.04436469062495859</v>
-      </c>
-      <c r="AK11">
-        <v>4.321697846231136</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
       <c r="AM11">
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>0.1133648633333339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -2725,115 +2725,115 @@
         <v>0</v>
       </c>
       <c r="D12">
+        <v>0.2442783066390175</v>
+      </c>
+      <c r="E12">
+        <v>0.23392512</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.2513559763612752</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0.2402147733333333</v>
+      </c>
+      <c r="N12">
+        <v>0.2230565752380951</v>
+      </c>
+      <c r="O12">
+        <v>0.3822546707798883</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.2489644472257596</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0.01947451275169619</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
         <v>0.2402147733333332</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>100</v>
+      </c>
+      <c r="AC12">
         <v>0.1188905142857143</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0.253993195905976</v>
+      </c>
+      <c r="AH12">
+        <v>24.7422405575548</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0.2402147733333323</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0.2402147733333332</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
         <v>100</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0.23392512</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0.2442783066390175</v>
-      </c>
-      <c r="Q12">
-        <v>0.2513559763612752</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0.3822546707798883</v>
-      </c>
-      <c r="Y12">
-        <v>0.2402147733333333</v>
-      </c>
-      <c r="Z12">
-        <v>0.2230565752380951</v>
-      </c>
-      <c r="AA12">
-        <v>0.2489644472257596</v>
-      </c>
-      <c r="AB12">
-        <v>0.2402147733333332</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0.01947451275169619</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0.253993195905976</v>
-      </c>
-      <c r="AK12">
-        <v>24.7422405575548</v>
-      </c>
-      <c r="AL12">
-        <v>100</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0.2402147733333323</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -2847,115 +2847,115 @@
         <v>0</v>
       </c>
       <c r="D13">
+        <v>0.05119647330652067</v>
+      </c>
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.05267982945874502</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.2102146100338443</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0.06083333333333331</v>
+      </c>
+      <c r="N13">
+        <v>0.1216666666666666</v>
+      </c>
+      <c r="O13">
+        <v>0.2085015945479744</v>
+      </c>
+      <c r="P13">
+        <v>0.05249894719724466</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.05217860665581671</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
         <v>0.0608333333333333</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
         <v>0.01428571428571429</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0.1</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0.2102146100338443</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0.05119647330652067</v>
-      </c>
-      <c r="Q13">
-        <v>0.05267982945874502</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0.05249894719724466</v>
-      </c>
-      <c r="X13">
-        <v>0.2085015945479744</v>
-      </c>
-      <c r="Y13">
-        <v>0.06083333333333331</v>
-      </c>
-      <c r="Z13">
-        <v>0.1216666666666666</v>
-      </c>
-      <c r="AA13">
-        <v>0.05217860665581671</v>
-      </c>
-      <c r="AB13">
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0.05323254468704906</v>
+      </c>
+      <c r="AH13">
+        <v>5.185542161630679</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0.06083333333333325</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
         <v>0.0608333333333333</v>
       </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0.05323254468704906</v>
-      </c>
-      <c r="AK13">
-        <v>5.185542161630679</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
       <c r="AM13">
         <v>0</v>
       </c>
       <c r="AN13">
-        <v>0.06083333333333325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:40">
@@ -2969,115 +2969,115 @@
         <v>0</v>
       </c>
       <c r="D14">
+        <v>0.1929032549771618</v>
+      </c>
+      <c r="E14">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.1984923944544318</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1.600300428130661</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>0.2947037037037035</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="N14">
+        <v>0.9262116402116389</v>
+      </c>
+      <c r="O14">
+        <v>1.587259757860452</v>
+      </c>
+      <c r="P14">
+        <v>0.1978108479580132</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.1966038364364847</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0.2947037037037035</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
         <v>0.02</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0.7599999999999999</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>1.600300428130661</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0.1929032549771618</v>
-      </c>
-      <c r="Q14">
-        <v>0.1984923944544318</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0.1978108479580132</v>
-      </c>
-      <c r="X14">
-        <v>1.587259757860452</v>
-      </c>
-      <c r="Y14">
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0.2005749708455231</v>
+      </c>
+      <c r="AH14">
+        <v>19.53861071271215</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0.2947037037037036</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
         <v>0.2947037037037035</v>
       </c>
-      <c r="Z14">
-        <v>0.9262116402116389</v>
-      </c>
-      <c r="AA14">
-        <v>0.1966038364364847</v>
-      </c>
-      <c r="AB14">
-        <v>0.2947037037037035</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0.2005749708455231</v>
-      </c>
-      <c r="AK14">
-        <v>19.53861071271215</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
       <c r="AM14">
         <v>0</v>
       </c>
       <c r="AN14">
-        <v>0.2947037037037036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:40">
@@ -3091,115 +3091,115 @@
         <v>0</v>
       </c>
       <c r="D15">
+        <v>93.89956205165797</v>
+      </c>
+      <c r="E15">
+        <v>85</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>96.6201887680056</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>74.68265472433458</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>91.11679328808579</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="N15">
+        <v>77.02227765647899</v>
+      </c>
+      <c r="O15">
+        <v>74.07407407407406</v>
+      </c>
+      <c r="P15">
+        <v>98.25350226762684</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>97.65397443337616</v>
+      </c>
+      <c r="T15">
+        <v>100</v>
+      </c>
+      <c r="U15">
+        <v>99.93623007906949</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>91.11679328808579</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>100</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
         <v>94.99999999999999</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>85</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>74.68265472433458</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>93.89956205165797</v>
-      </c>
-      <c r="Q15">
-        <v>96.6201887680056</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>98.25350226762684</v>
-      </c>
-      <c r="X15">
-        <v>74.07407407407406</v>
-      </c>
-      <c r="Y15">
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>97.63392495968235</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
         <v>91.11679328808579</v>
       </c>
-      <c r="Z15">
-        <v>77.02227765647899</v>
-      </c>
-      <c r="AA15">
-        <v>97.65397443337616</v>
-      </c>
-      <c r="AB15">
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
         <v>91.11679328808579</v>
       </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>99.93623007906949</v>
-      </c>
-      <c r="AI15">
-        <v>100</v>
-      </c>
-      <c r="AJ15">
-        <v>97.63392495968235</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
       <c r="AM15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AN15">
-        <v>91.11679328808579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:40">
@@ -3213,115 +3213,115 @@
         <v>0</v>
       </c>
       <c r="D16">
+        <v>4.022564687918848</v>
+      </c>
+      <c r="E16">
+        <v>13.41781515999999</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1.241734096473468</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>23.50683023750091</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>6.8828308651645</v>
+      </c>
+      <c r="N16">
+        <v>21.38702407045631</v>
+      </c>
+      <c r="O16">
+        <v>23.31527569134414</v>
+      </c>
+      <c r="P16">
+        <v>0.3788174875850964</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.3765060012495807</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
         <v>6.882830865164499</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
         <v>4.371793721428576</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>13.41781515999999</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>23.50683023750091</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>4.022564687918848</v>
-      </c>
-      <c r="Q16">
-        <v>1.241734096473468</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0.3788174875850964</v>
-      </c>
-      <c r="X16">
-        <v>23.31527569134414</v>
-      </c>
-      <c r="Y16">
-        <v>6.8828308651645</v>
-      </c>
-      <c r="Z16">
-        <v>21.38702407045631</v>
-      </c>
-      <c r="AA16">
-        <v>0.3765060012495807</v>
-      </c>
-      <c r="AB16">
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0.3764287002773323</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>6.882830865164502</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
         <v>6.882830865164499</v>
       </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0.3764287002773323</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
       <c r="AM16">
         <v>0</v>
       </c>
       <c r="AN16">
-        <v>6.882830865164502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:40">
@@ -3329,7 +3329,7 @@
         <v>86</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3362,41 +3362,41 @@
         <v>0</v>
       </c>
       <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
         <v>100</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>100</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
       <c r="Y17">
         <v>0</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="AE17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -3454,115 +3454,115 @@
         <v>0</v>
       </c>
       <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>100</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="L18">
+        <v>99.99999999999999</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
         <v>100</v>
       </c>
-      <c r="H18">
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
         <v>100</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
+      <c r="AE18">
         <v>100</v>
       </c>
-      <c r="U18">
-        <v>99.99999999999999</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
         <v>100</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
       </c>
       <c r="AN18">
         <v>0</v>
@@ -4067,115 +4067,115 @@
         <v>0</v>
       </c>
       <c r="D23">
+        <v>1.067856040227408</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1.098795882850504</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0.9135803999999997</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>1.117370449632785</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>100</v>
+      </c>
+      <c r="S23">
+        <v>1.110552426150026</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
         <v>0.9135803999999996</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>1.067856040227408</v>
-      </c>
-      <c r="Q23">
-        <v>1.098795882850504</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>1.117370449632785</v>
-      </c>
       <c r="X23">
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>0.9135803999999997</v>
+        <v>0</v>
       </c>
       <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>1.110552426150026</v>
+        <v>0</v>
       </c>
       <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>1.11032441708247</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0.9135803999999959</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
         <v>0.9135803999999996</v>
       </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>100</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>1.11032441708247</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
       <c r="AM23">
         <v>0</v>
       </c>
       <c r="AN23">
-        <v>0.9135803999999959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:40">

--- a/qsdsan/systems/bwaise/results/sysA.xlsx
+++ b/qsdsan/systems/bwaise/results/sysA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="160">
   <si>
     <t>Unit operation</t>
   </si>
@@ -120,123 +120,123 @@
     <t>Cumulative NPV [MM$]</t>
   </si>
   <si>
+    <t>A_liq_K</t>
+  </si>
+  <si>
+    <t>A7_N2O</t>
+  </si>
+  <si>
+    <t>transported</t>
+  </si>
+  <si>
+    <t>desiccant</t>
+  </si>
+  <si>
+    <t>anaerobic_treated</t>
+  </si>
+  <si>
+    <t>A_N2O</t>
+  </si>
+  <si>
+    <t>A_sol_non_fertilizers</t>
+  </si>
+  <si>
+    <t>dried_sludge</t>
+  </si>
+  <si>
+    <t>A_sol_K</t>
+  </si>
+  <si>
+    <t>conveyance_loss</t>
+  </si>
+  <si>
+    <t>mixed_waste</t>
+  </si>
+  <si>
+    <t>A6_CH4</t>
+  </si>
+  <si>
+    <t>A_liq_N</t>
+  </si>
+  <si>
+    <t>A_liq_non_fertilizers</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>ws1</t>
+  </si>
+  <si>
+    <t>evaporated</t>
+  </si>
+  <si>
+    <t>leachate</t>
+  </si>
+  <si>
+    <t>A6_N2O</t>
+  </si>
+  <si>
+    <t>A_sol_N</t>
+  </si>
+  <si>
+    <t>feces</t>
+  </si>
+  <si>
+    <t>liq</t>
+  </si>
+  <si>
+    <t>A8_CH4</t>
+  </si>
+  <si>
+    <t>A2_CH4</t>
+  </si>
+  <si>
+    <t>facultative_treated</t>
+  </si>
+  <si>
+    <t>A_liq_P</t>
+  </si>
+  <si>
+    <t>toilet_paper</t>
+  </si>
+  <si>
+    <t>sol</t>
+  </si>
+  <si>
     <t>A8_N2O</t>
   </si>
   <si>
     <t>A2_N2O</t>
   </si>
   <si>
-    <t>liq</t>
-  </si>
-  <si>
-    <t>feces</t>
-  </si>
-  <si>
-    <t>desiccant</t>
-  </si>
-  <si>
-    <t>anaerobic_treated</t>
-  </si>
-  <si>
-    <t>A7_N2O</t>
-  </si>
-  <si>
-    <t>A_sol_N</t>
-  </si>
-  <si>
-    <t>A_sol_non_fertilizers</t>
-  </si>
-  <si>
-    <t>A6_CH4</t>
+    <t>A7_CH4</t>
+  </si>
+  <si>
+    <t>A_sol_P</t>
+  </si>
+  <si>
+    <t>flushing_water</t>
+  </si>
+  <si>
+    <t>A5_CH4</t>
+  </si>
+  <si>
+    <t>liquid_fertilizer</t>
+  </si>
+  <si>
+    <t>cleansing_water</t>
+  </si>
+  <si>
+    <t>reuse_loss</t>
+  </si>
+  <si>
+    <t>A5_N2O</t>
   </si>
   <si>
     <t>A_CH4</t>
   </si>
   <si>
-    <t>mixed_waste</t>
-  </si>
-  <si>
-    <t>sol</t>
-  </si>
-  <si>
-    <t>dried_sludge</t>
-  </si>
-  <si>
-    <t>A_liq_non_fertilizers</t>
-  </si>
-  <si>
-    <t>A_liq_P</t>
-  </si>
-  <si>
-    <t>toilet_paper</t>
-  </si>
-  <si>
-    <t>liquid_fertilizer</t>
-  </si>
-  <si>
-    <t>evaporated</t>
-  </si>
-  <si>
-    <t>leachate</t>
-  </si>
-  <si>
-    <t>A6_N2O</t>
-  </si>
-  <si>
-    <t>transported</t>
-  </si>
-  <si>
-    <t>A_N2O</t>
-  </si>
-  <si>
-    <t>A5_CH4</t>
-  </si>
-  <si>
-    <t>A_sol_P</t>
-  </si>
-  <si>
-    <t>flushing_water</t>
-  </si>
-  <si>
-    <t>A_liq_K</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>A2_CH4</t>
-  </si>
-  <si>
-    <t>A8_CH4</t>
-  </si>
-  <si>
-    <t>A_liq_N</t>
-  </si>
-  <si>
-    <t>facultative_treated</t>
-  </si>
-  <si>
-    <t>reuse_loss</t>
-  </si>
-  <si>
-    <t>A5_N2O</t>
-  </si>
-  <si>
-    <t>conveyance_loss</t>
-  </si>
-  <si>
-    <t>cleansing_water</t>
-  </si>
-  <si>
-    <t>ws1</t>
-  </si>
-  <si>
-    <t>A7_CH4</t>
-  </si>
-  <si>
-    <t>A_sol_K</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -309,36 +309,36 @@
     <t>HAP</t>
   </si>
   <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
     <t>A11</t>
   </si>
   <si>
     <t>gas</t>
   </si>
   <si>
-    <t>liquid</t>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A10</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
     <t>A9</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>Unit Operation</t>
   </si>
   <si>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t>Wood</t>
+  </si>
+  <si>
+    <t>Single toilet</t>
   </si>
   <si>
     <t>Total toilets</t>
@@ -971,13 +974,13 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>12.8152176875</v>
+        <v>12.8156666875</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.8152176875</v>
+        <v>12.8156666875</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1102,10 +1105,10 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>12.8152176875</v>
+        <v>12.8156666875</v>
       </c>
       <c r="C2">
-        <v>12.8152176875</v>
+        <v>12.8156666875</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1141,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-12.8152176875</v>
+        <v>-12.8156666875</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>-12.8152176875</v>
+        <v>-12.8156666875</v>
       </c>
       <c r="R2">
-        <v>-12.8152176875</v>
+        <v>-12.8156666875</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1167,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.83129460754375</v>
+        <v>1.83135876964375</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1182,10 +1185,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.841778465464011</v>
+        <v>1.844249597010434</v>
       </c>
       <c r="K3">
-        <v>0.2897047380653726</v>
+        <v>0.3227926591805353</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1194,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-3.383368334942388</v>
+        <v>-3.352815707473649</v>
       </c>
       <c r="O3">
-        <v>-1.552073727398638</v>
+        <v>-1.521456937829899</v>
       </c>
       <c r="P3">
         <v>0.9523809523809523</v>
       </c>
       <c r="Q3">
-        <v>-1.47816545466537</v>
+        <v>-1.449006607457046</v>
       </c>
       <c r="R3">
-        <v>-14.29338314216537</v>
+        <v>-14.26467329495705</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1223,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3.13844681166875</v>
+        <v>3.13855677176875</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1238,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.841778465464011</v>
+        <v>1.844249597010434</v>
       </c>
       <c r="K4">
-        <v>0.2897047380653726</v>
+        <v>0.3227926591805353</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1250,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-4.690520539067387</v>
+        <v>-4.660013709598649</v>
       </c>
       <c r="O4">
-        <v>-1.552073727398638</v>
+        <v>-1.521456937829899</v>
       </c>
       <c r="P4">
         <v>0.9070294784580498</v>
       </c>
       <c r="Q4">
-        <v>-1.407776623490828</v>
+        <v>-1.380006292816235</v>
       </c>
       <c r="R4">
-        <v>-15.7011597656562</v>
+        <v>-15.64467958777328</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1279,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2.24138157354375</v>
+        <v>2.24146010364375</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1294,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.841778465464011</v>
+        <v>1.844249597010434</v>
       </c>
       <c r="K5">
-        <v>0.2897047380653726</v>
+        <v>0.3227926591805353</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1306,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-3.793455300942388</v>
+        <v>-3.762917041473648</v>
       </c>
       <c r="O5">
-        <v>-1.552073727398638</v>
+        <v>-1.521456937829899</v>
       </c>
       <c r="P5">
         <v>0.863837598531476</v>
       </c>
       <c r="Q5">
-        <v>-1.340739641419836</v>
+        <v>-1.314291707444033</v>
       </c>
       <c r="R5">
-        <v>-17.04189940707603</v>
+        <v>-16.95897129521731</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1335,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.60062068916875</v>
+        <v>1.60067676926875</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1350,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.841778465464011</v>
+        <v>1.844249597010434</v>
       </c>
       <c r="K6">
-        <v>0.2897047380653726</v>
+        <v>0.3227926591805353</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1362,19 +1365,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>-3.152694416567388</v>
+        <v>-3.122133707098649</v>
       </c>
       <c r="O6">
-        <v>-1.552073727398638</v>
+        <v>-1.521456937829899</v>
       </c>
       <c r="P6">
         <v>0.8227024747918819</v>
       </c>
       <c r="Q6">
-        <v>-1.27689489659032</v>
+        <v>-1.251706388041936</v>
       </c>
       <c r="R6">
-        <v>-18.31879430366635</v>
+        <v>-18.21067768325925</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1391,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.14439893949375</v>
+        <v>1.14443903519375</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1406,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.841778465464011</v>
+        <v>1.844249597010434</v>
       </c>
       <c r="K7">
-        <v>0.2897047380653726</v>
+        <v>0.3227926591805353</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1418,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-2.696472666892388</v>
+        <v>-2.665895973023649</v>
       </c>
       <c r="O7">
-        <v>-1.552073727398638</v>
+        <v>-1.521456937829899</v>
       </c>
       <c r="P7">
         <v>0.7835261664684589</v>
       </c>
       <c r="Q7">
-        <v>-1.216090377705067</v>
+        <v>-1.192101321944701</v>
       </c>
       <c r="R7">
-        <v>-19.53488468137142</v>
+        <v>-19.40277900520395</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1447,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.143117417725</v>
+        <v>1.143157468525</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1462,10 +1465,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.841778465464011</v>
+        <v>1.844249597010434</v>
       </c>
       <c r="K8">
-        <v>0.2897047380653726</v>
+        <v>0.3227926591805353</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1474,19 +1477,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-2.695191145123638</v>
+        <v>-2.664614406354898</v>
       </c>
       <c r="O8">
-        <v>-1.552073727398638</v>
+        <v>-1.521456937829899</v>
       </c>
       <c r="P8">
         <v>0.7462153966366274</v>
       </c>
       <c r="Q8">
-        <v>-1.158181312100063</v>
+        <v>-1.135334592328286</v>
       </c>
       <c r="R8">
-        <v>-20.69306599347149</v>
+        <v>-20.53811359753224</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1503,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.14439893949375</v>
+        <v>1.14443903519375</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1518,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.841778465464011</v>
+        <v>1.844249597010434</v>
       </c>
       <c r="K9">
-        <v>0.2897047380653726</v>
+        <v>0.3227926591805353</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1530,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>-2.696472666892388</v>
+        <v>-2.665895973023649</v>
       </c>
       <c r="O9">
-        <v>-1.552073727398638</v>
+        <v>-1.521456937829899</v>
       </c>
       <c r="P9">
         <v>0.7106813301301214</v>
       </c>
       <c r="Q9">
-        <v>-1.103029821047679</v>
+        <v>-1.081271040312654</v>
       </c>
       <c r="R9">
-        <v>-21.79609581451916</v>
+        <v>-21.6193846378449</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1559,7 +1562,7 @@
         <v>-0</v>
       </c>
       <c r="E10">
-        <v>0.5715587088625</v>
+        <v>0.5715787342624999</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1574,10 +1577,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.841778465464011</v>
+        <v>1.844249597010434</v>
       </c>
       <c r="K10">
-        <v>0.2897047380653726</v>
+        <v>0.3227926591805353</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1586,19 +1589,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>-2.123632436261138</v>
+        <v>-2.093035672092399</v>
       </c>
       <c r="O10">
-        <v>-1.552073727398638</v>
+        <v>-1.521456937829899</v>
       </c>
       <c r="P10">
         <v>0.676839362028687</v>
       </c>
       <c r="Q10">
-        <v>-1.05050459147398</v>
+        <v>-1.029781943154908</v>
       </c>
       <c r="R10">
-        <v>-22.84660040599314</v>
+        <v>-22.6491665809998</v>
       </c>
     </row>
   </sheetData>
@@ -1738,121 +1741,121 @@
         <v>72</v>
       </c>
       <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="J3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" t="s">
+        <v>102</v>
+      </c>
+      <c r="V3" t="s">
+        <v>104</v>
+      </c>
+      <c r="W3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="X3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="AA3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" t="s">
         <v>102</v>
       </c>
-      <c r="M3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>103</v>
-      </c>
-      <c r="R3" t="s">
-        <v>100</v>
-      </c>
-      <c r="S3" t="s">
-        <v>104</v>
-      </c>
-      <c r="T3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X3" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>5</v>
-      </c>
       <c r="AH3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AI3" t="s">
         <v>7</v>
       </c>
       <c r="AJ3" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="AK3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AL3" t="s">
         <v>105</v>
       </c>
       <c r="AM3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -1860,121 +1863,121 @@
         <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" t="s">
+        <v>97</v>
+      </c>
+      <c r="O4" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="Q4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S4" t="s">
+        <v>97</v>
+      </c>
+      <c r="T4" t="s">
+        <v>99</v>
+      </c>
+      <c r="U4" t="s">
+        <v>97</v>
+      </c>
+      <c r="V4" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>96</v>
-      </c>
-      <c r="I4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L4" t="s">
-        <v>100</v>
-      </c>
-      <c r="M4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" t="s">
-        <v>101</v>
-      </c>
-      <c r="P4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>100</v>
-      </c>
-      <c r="R4" t="s">
-        <v>6</v>
-      </c>
-      <c r="S4" t="s">
-        <v>103</v>
-      </c>
-      <c r="T4" t="s">
-        <v>100</v>
-      </c>
-      <c r="U4" t="s">
-        <v>100</v>
-      </c>
-      <c r="V4" t="s">
-        <v>96</v>
-      </c>
-      <c r="W4" t="s">
-        <v>105</v>
-      </c>
-      <c r="X4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>100</v>
       </c>
       <c r="AK4" t="s">
         <v>6</v>
       </c>
       <c r="AL4" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="AM4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AN4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1982,10 +1985,10 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
         <v>98</v>
@@ -1997,10 +2000,10 @@
         <v>98</v>
       </c>
       <c r="G5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s">
         <v>98</v>
-      </c>
-      <c r="H5" t="s">
-        <v>97</v>
       </c>
       <c r="I5" t="s">
         <v>98</v>
@@ -2009,13 +2012,13 @@
         <v>98</v>
       </c>
       <c r="K5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s">
         <v>98</v>
@@ -2030,28 +2033,28 @@
         <v>98</v>
       </c>
       <c r="R5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="S5" t="s">
         <v>98</v>
       </c>
       <c r="T5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="U5" t="s">
         <v>98</v>
       </c>
       <c r="V5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W5" t="s">
         <v>98</v>
       </c>
       <c r="X5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Y5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z5" t="s">
         <v>98</v>
@@ -2066,13 +2069,13 @@
         <v>98</v>
       </c>
       <c r="AD5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AE5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AF5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s">
         <v>98</v>
@@ -2081,7 +2084,7 @@
         <v>98</v>
       </c>
       <c r="AI5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s">
         <v>98</v>
@@ -2093,10 +2096,10 @@
         <v>98</v>
       </c>
       <c r="AM5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AN5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -2226,121 +2229,121 @@
         <v>76</v>
       </c>
       <c r="B7">
+        <v>28.25077749748643</v>
+      </c>
+      <c r="C7">
+        <v>0.03233962298548675</v>
+      </c>
+      <c r="D7">
+        <v>13793.84568493152</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>11468.72431455273</v>
+      </c>
+      <c r="G7">
+        <v>0.04255255847500018</v>
+      </c>
+      <c r="H7">
+        <v>1117.691921899113</v>
+      </c>
+      <c r="I7">
+        <v>1126.874698533487</v>
+      </c>
+      <c r="J7">
+        <v>4.307531168981041</v>
+      </c>
+      <c r="K7">
+        <v>281.5070547945214</v>
+      </c>
+      <c r="L7">
+        <v>14075.35273972603</v>
+      </c>
+      <c r="M7">
+        <v>18.65788779024947</v>
+      </c>
+      <c r="N7">
+        <v>46.07990612355568</v>
+      </c>
+      <c r="O7">
+        <v>11278.07439557711</v>
+      </c>
+      <c r="P7">
+        <v>0.05833333333333333</v>
+      </c>
+      <c r="Q7">
+        <v>13793.84568493152</v>
+      </c>
+      <c r="R7">
+        <v>652.6847782998941</v>
+      </c>
+      <c r="S7">
+        <v>46151.37064015727</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>1.825957475111844</v>
+      </c>
+      <c r="V7">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="W7">
+        <v>11801.0167884562</v>
+      </c>
+      <c r="X7">
+        <v>3.028903542442584</v>
+      </c>
+      <c r="Y7">
+        <v>42.02830025162718</v>
+      </c>
+      <c r="Z7">
+        <v>11360.19748558527</v>
+      </c>
+      <c r="AA7">
+        <v>4.934529836990168</v>
+      </c>
+      <c r="AB7">
+        <v>0.000281583</v>
+      </c>
+      <c r="AC7">
+        <v>1931.138395890413</v>
+      </c>
+      <c r="AD7">
         <v>0.01021293548951342</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>11801.0167884562</v>
-      </c>
-      <c r="E7">
-        <v>0.01041666666666667</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>11468.72431455273</v>
-      </c>
-      <c r="H7">
-        <v>0.2976798748463171</v>
-      </c>
-      <c r="I7">
-        <v>1.825957475111844</v>
-      </c>
-      <c r="J7">
-        <v>1117.691921899113</v>
-      </c>
-      <c r="K7">
-        <v>18.65771208211736</v>
-      </c>
-      <c r="L7">
-        <v>70.08777918019197</v>
-      </c>
-      <c r="M7">
-        <v>14075.35273972603</v>
-      </c>
-      <c r="N7">
-        <v>1931.138395890413</v>
-      </c>
-      <c r="O7">
-        <v>1126.874698533487</v>
-      </c>
-      <c r="P7">
-        <v>11278.07439557711</v>
-      </c>
-      <c r="Q7">
-        <v>4.934529836990166</v>
-      </c>
-      <c r="R7">
-        <v>0.000281583</v>
-      </c>
-      <c r="S7">
-        <v>11347.31396883699</v>
-      </c>
-      <c r="T7">
-        <v>652.6847782998941</v>
-      </c>
-      <c r="U7">
-        <v>46151.37064015726</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>13793.84568493152</v>
-      </c>
-      <c r="X7">
-        <v>0.3078928103358305</v>
-      </c>
-      <c r="Y7">
-        <v>4.97353489784605</v>
-      </c>
-      <c r="Z7">
-        <v>3.049287990281032</v>
-      </c>
-      <c r="AA7">
-        <v>0.4166666669999999</v>
-      </c>
-      <c r="AB7">
-        <v>28.25077749748643</v>
-      </c>
-      <c r="AC7">
-        <v>0.05833333333333333</v>
-      </c>
-      <c r="AD7">
-        <v>42.02830025162718</v>
-      </c>
       <c r="AE7">
-        <v>3.028903542442585</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>36.05426592540499</v>
+        <v>1.39934158426871</v>
       </c>
       <c r="AG7">
-        <v>11349.64418011353</v>
+        <v>3.049287990281033</v>
       </c>
       <c r="AH7">
-        <v>2.330211276538965</v>
+        <v>0.416666667</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>4.973534897846049</v>
       </c>
       <c r="AJ7">
-        <v>281.5070547945214</v>
+        <v>11357.33960903515</v>
       </c>
       <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>13793.84568493152</v>
+        <v>2.857876550125845</v>
       </c>
       <c r="AM7">
-        <v>1.399328406158802</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>4.307531168981041</v>
+        <v>70.08796806643399</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -2359,65 +2362,65 @@
         <v>0</v>
       </c>
       <c r="D9">
+        <v>0.1665958663793535</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.2003708180227447</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0.1665958663793533</v>
+      </c>
+      <c r="L9">
+        <v>0.1665958663793535</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>44.7246020411618</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.3659002285714285</v>
+      </c>
+      <c r="Q9">
+        <v>0.1665958663793535</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.03670593194421814</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0.06574463999999999</v>
+      </c>
+      <c r="W9">
         <v>0.1947287859832708</v>
       </c>
-      <c r="E9">
-        <v>0.06574463999999999</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0.2003708180227447</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0.1665958663793535</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0.09326801448885307</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0.03670593194421815</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0.1665958663793535</v>
-      </c>
       <c r="X9">
         <v>0</v>
       </c>
@@ -2425,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.190962716522005</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -2434,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.3659002285714285</v>
+        <v>0</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -2443,25 +2446,25 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>29.3541254131959</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>0.09815670052917135</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>23.90434799016876</v>
+        <v>0</v>
       </c>
       <c r="AI9">
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0.1665958663793533</v>
+        <v>0.1814602305130159</v>
       </c>
       <c r="AK9">
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>0.1665958663793535</v>
+        <v>37.95430162961883</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -2481,83 +2484,83 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0.2110829066666666</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.2266221078447728</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.162037312354971</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.2110829066666669</v>
+      </c>
+      <c r="L10">
+        <v>0.2110829066666666</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>55.2753979588382</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.06457062857142859</v>
+      </c>
+      <c r="Q10">
+        <v>0.2110829066666666</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>100</v>
+      </c>
+      <c r="V10">
+        <v>0.26297856</v>
+      </c>
+      <c r="W10">
         <v>0.220240893225146</v>
       </c>
-      <c r="E10">
-        <v>0.26297856</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0.2266221078447728</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>100</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0.2110829066666666</v>
-      </c>
-      <c r="N10">
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0.2287870859421626</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
         <v>0.1618623313054371</v>
       </c>
-      <c r="O10">
-        <v>0.162037312354971</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0.2244659093667874</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0.2110829066666666</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0.06457062857142859</v>
-      </c>
       <c r="AD10">
         <v>0</v>
       </c>
@@ -2565,25 +2568,25 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>70.6458745868041</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>0.2289998203651648</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>22.30756073170247</v>
+        <v>0</v>
       </c>
       <c r="AI10">
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.2110829066666669</v>
+        <v>0.2242677631000092</v>
       </c>
       <c r="AK10">
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>0.2110829066666666</v>
+        <v>18.18879460234276</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -2603,109 +2606,109 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>0.1133648633333333</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.1097601265284525</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.2705968990384974</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.1133648633333339</v>
+      </c>
+      <c r="L11">
+        <v>0.1133648633333333</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.04455919285714286</v>
+      </c>
+      <c r="Q11">
+        <v>0.1133648633333333</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.007589476234595888</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0.15953652</v>
+      </c>
+      <c r="W11">
         <v>0.1066695060646485</v>
       </c>
-      <c r="E11">
-        <v>0.15953652</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0.1097601265284525</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0.1133648633333333</v>
-      </c>
-      <c r="N11">
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0.04432347706921555</v>
+      </c>
+      <c r="AA11">
+        <v>100</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
         <v>0.157901059642857</v>
       </c>
-      <c r="O11">
-        <v>0.2705968990384974</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
         <v>100</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0.0434863250505081</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0.007589476234595889</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0.1133648633333332</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>100</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0.04455919285714285</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0.04436469062495859</v>
-      </c>
       <c r="AH11">
-        <v>4.321697846231136</v>
+        <v>0</v>
       </c>
       <c r="AI11">
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.1133648633333339</v>
+        <v>0.04344793769365304</v>
       </c>
       <c r="AK11">
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>0.1133648633333332</v>
+        <v>3.52375929416493</v>
       </c>
       <c r="AM11">
         <v>0</v>
@@ -2719,89 +2722,89 @@
         <v>81</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
+        <v>0.2402147733333332</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.2513559763612752</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.3822546707798883</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <v>0.2402147733333323</v>
+      </c>
+      <c r="L12">
+        <v>0.2402147733333333</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.1188905142857143</v>
+      </c>
+      <c r="Q12">
+        <v>0.2402147733333332</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.01947451275169619</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0.23392512</v>
+      </c>
+      <c r="W12">
         <v>0.2442783066390175</v>
       </c>
-      <c r="E12">
-        <v>0.23392512</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0.2513559763612752</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0.2402147733333333</v>
-      </c>
-      <c r="N12">
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0.253757243336706</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
         <v>0.2230565752380951</v>
       </c>
-      <c r="O12">
-        <v>0.3822546707798883</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0.2489644472257596</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0.01947451275169619</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0.2402147733333332</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>100</v>
-      </c>
-      <c r="AC12">
-        <v>0.1188905142857143</v>
-      </c>
       <c r="AD12">
         <v>0</v>
       </c>
@@ -2812,28 +2815,28 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>0.253993195905976</v>
+        <v>0</v>
       </c>
       <c r="AH12">
-        <v>24.7422405575548</v>
+        <v>0</v>
       </c>
       <c r="AI12">
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>0.2402147733333323</v>
+        <v>0.248744674985434</v>
       </c>
       <c r="AK12">
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>0.2402147733333332</v>
+        <v>20.17394626493406</v>
       </c>
       <c r="AM12">
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -2847,83 +2850,83 @@
         <v>0</v>
       </c>
       <c r="D13">
+        <v>0.0608333333333333</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.05267982945874502</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.2102146100338443</v>
+      </c>
+      <c r="I13">
+        <v>0.2085015945479744</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.06083333333333325</v>
+      </c>
+      <c r="L13">
+        <v>0.06083333333333331</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0.05249894719724466</v>
+      </c>
+      <c r="P13">
+        <v>0.01428571428571429</v>
+      </c>
+      <c r="Q13">
+        <v>0.0608333333333333</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0.1</v>
+      </c>
+      <c r="W13">
         <v>0.05119647330652067</v>
       </c>
-      <c r="E13">
-        <v>0.1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0.05267982945874502</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0.2102146100338443</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0.06083333333333331</v>
-      </c>
-      <c r="N13">
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0.05318309314310952</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
         <v>0.1216666666666666</v>
       </c>
-      <c r="O13">
-        <v>0.2085015945479744</v>
-      </c>
-      <c r="P13">
-        <v>0.05249894719724466</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0.05217860665581671</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0.0608333333333333</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0.01428571428571429</v>
-      </c>
       <c r="AD13">
         <v>0</v>
       </c>
@@ -2934,22 +2937,22 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>0.05323254468704906</v>
+        <v>0</v>
       </c>
       <c r="AH13">
-        <v>5.185542161630679</v>
+        <v>0</v>
       </c>
       <c r="AI13">
         <v>0</v>
       </c>
       <c r="AJ13">
-        <v>0.06083333333333325</v>
+        <v>0.05213254622666868</v>
       </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>0.0608333333333333</v>
+        <v>4.228107340559537</v>
       </c>
       <c r="AM13">
         <v>0</v>
@@ -2969,83 +2972,83 @@
         <v>0</v>
       </c>
       <c r="D14">
+        <v>0.2947037037037035</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.1984923944544318</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1.600300428130661</v>
+      </c>
+      <c r="I14">
+        <v>1.587259757860452</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0.2947037037037036</v>
+      </c>
+      <c r="L14">
+        <v>0.2947037037037035</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0.1978108479580132</v>
+      </c>
+      <c r="P14">
+        <v>0.02</v>
+      </c>
+      <c r="Q14">
+        <v>0.2947037037037035</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="W14">
         <v>0.1929032549771618</v>
       </c>
-      <c r="E14">
-        <v>0.7599999999999999</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0.1984923944544318</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1.600300428130661</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0.2947037037037035</v>
-      </c>
-      <c r="N14">
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0.200388642312062</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
         <v>0.9262116402116389</v>
       </c>
-      <c r="O14">
-        <v>1.587259757860452</v>
-      </c>
-      <c r="P14">
-        <v>0.1978108479580132</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0.1966038364364847</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0.2947037037037035</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0.02</v>
-      </c>
       <c r="AD14">
         <v>0</v>
       </c>
@@ -3056,22 +3059,22 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>0.2005749708455231</v>
+        <v>0</v>
       </c>
       <c r="AH14">
-        <v>19.53861071271215</v>
+        <v>0</v>
       </c>
       <c r="AI14">
         <v>0</v>
       </c>
       <c r="AJ14">
-        <v>0.2947037037037036</v>
+        <v>0.1964302852886331</v>
       </c>
       <c r="AK14">
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>0.2947037037037035</v>
+        <v>15.93109086837989</v>
       </c>
       <c r="AM14">
         <v>0</v>
@@ -3091,109 +3094,109 @@
         <v>0</v>
       </c>
       <c r="D15">
+        <v>91.11679328808579</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>96.6201887680056</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>74.68265472433458</v>
+      </c>
+      <c r="I15">
+        <v>74.07407407407406</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>91.11679328808579</v>
+      </c>
+      <c r="L15">
+        <v>91.11679328808579</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>98.25350226762684</v>
+      </c>
+      <c r="P15">
+        <v>94.99999999999999</v>
+      </c>
+      <c r="Q15">
+        <v>91.11679328808579</v>
+      </c>
+      <c r="R15">
+        <v>100</v>
+      </c>
+      <c r="S15">
+        <v>99.93623007906947</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>85</v>
+      </c>
+      <c r="W15">
         <v>93.89956205165797</v>
       </c>
-      <c r="E15">
-        <v>85</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>96.6201887680056</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>74.68265472433458</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>91.11679328808579</v>
-      </c>
-      <c r="N15">
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>97.54322577634407</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
         <v>77.02227765647899</v>
       </c>
-      <c r="O15">
-        <v>74.07407407407406</v>
-      </c>
-      <c r="P15">
-        <v>98.25350226762684</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>97.65397443337616</v>
-      </c>
-      <c r="T15">
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
         <v>100</v>
       </c>
-      <c r="U15">
-        <v>99.93623007906949</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>91.11679328808579</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>100</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>94.99999999999999</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>97.63392495968235</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
       <c r="AI15">
         <v>0</v>
       </c>
       <c r="AJ15">
-        <v>91.11679328808579</v>
+        <v>97.56777082889739</v>
       </c>
       <c r="AK15">
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>91.11679328808579</v>
+        <v>0</v>
       </c>
       <c r="AM15">
         <v>0</v>
@@ -3213,83 +3216,83 @@
         <v>0</v>
       </c>
       <c r="D16">
+        <v>6.882830865164499</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.241734096473468</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>23.50683023750091</v>
+      </c>
+      <c r="I16">
+        <v>23.31527569134414</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>6.882830865164502</v>
+      </c>
+      <c r="L16">
+        <v>6.8828308651645</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0.3788174875850964</v>
+      </c>
+      <c r="P16">
+        <v>4.371793721428576</v>
+      </c>
+      <c r="Q16">
+        <v>6.882830865164499</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>13.41781515999999</v>
+      </c>
+      <c r="W16">
         <v>4.022564687918848</v>
       </c>
-      <c r="E16">
-        <v>13.41781515999999</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1.241734096473468</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>23.50683023750091</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>6.8828308651645</v>
-      </c>
-      <c r="N16">
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0.3760790085516915</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
         <v>21.38702407045631</v>
       </c>
-      <c r="O16">
-        <v>23.31527569134414</v>
-      </c>
-      <c r="P16">
-        <v>0.3788174875850964</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0.3765060012495807</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>6.882830865164499</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>4.371793721428576</v>
-      </c>
       <c r="AD16">
         <v>0</v>
       </c>
@@ -3300,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>0.3764287002773323</v>
+        <v>0</v>
       </c>
       <c r="AH16">
         <v>0</v>
@@ -3309,13 +3312,13 @@
         <v>0</v>
       </c>
       <c r="AJ16">
-        <v>6.882830865164502</v>
+        <v>0.3761736422790019</v>
       </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>6.882830865164499</v>
+        <v>0</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -3329,11 +3332,11 @@
         <v>86</v>
       </c>
       <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>100</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
       <c r="D17">
         <v>0</v>
       </c>
@@ -3344,76 +3347,76 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
         <v>100</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>100</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -3478,14 +3481,14 @@
         <v>0</v>
       </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>100</v>
       </c>
-      <c r="L18">
-        <v>99.99999999999999</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
         <v>0</v>
       </c>
@@ -3517,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y18">
         <v>100</v>
@@ -3535,23 +3538,23 @@
         <v>0</v>
       </c>
       <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
         <v>100</v>
       </c>
-      <c r="AE18">
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
         <v>100</v>
       </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
       <c r="AJ18">
         <v>0</v>
       </c>
@@ -3562,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
         <v>100</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:40">
@@ -4067,80 +4070,80 @@
         <v>0</v>
       </c>
       <c r="D23">
+        <v>0.9135803999999996</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1.098795882850504</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0.9135803999999959</v>
+      </c>
+      <c r="L23">
+        <v>0.9135803999999997</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1.117370449632785</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.9135803999999996</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
         <v>1.067856040227408</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>1.098795882850504</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0.9135803999999997</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>1.117370449632785</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>1.109292956778979</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
         <v>100</v>
       </c>
-      <c r="S23">
-        <v>1.110552426150026</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0.9135803999999996</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
       <c r="AC23">
         <v>0</v>
       </c>
@@ -4154,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>1.11032441708247</v>
+        <v>0</v>
       </c>
       <c r="AH23">
         <v>0</v>
@@ -4163,13 +4166,13 @@
         <v>0</v>
       </c>
       <c r="AJ23">
-        <v>0.9135803999999959</v>
+        <v>1.109572091016179</v>
       </c>
       <c r="AK23">
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>0.9135803999999996</v>
+        <v>0</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -4578,7 +4581,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D71"/>
+  <dimension ref="A2:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4836,7 +4839,7 @@
         <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D27">
         <v>0.8</v>
@@ -4860,7 +4863,7 @@
         <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D29">
         <v>0.8</v>
@@ -4979,57 +4982,57 @@
         <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D39">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40">
         <v>12815217.6875</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" t="s">
+      <c r="B41" s="1"/>
+      <c r="C41" t="s">
         <v>123</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>73.14621967751141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C45" t="s">
-        <v>120</v>
-      </c>
       <c r="D45">
-        <v>1250</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -5038,10 +5041,10 @@
         <v>143</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D46">
-        <v>3.080328427584411</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5053,7 +5056,7 @@
         <v>121</v>
       </c>
       <c r="D47">
-        <v>11.08918233930388</v>
+        <v>3.080328427584411</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -5065,7 +5068,7 @@
         <v>121</v>
       </c>
       <c r="D48">
-        <v>36.59430171970281</v>
+        <v>11.08918233930388</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5074,10 +5077,10 @@
         <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D49">
-        <v>863.6885623511567</v>
+        <v>36.59430171970281</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -5086,104 +5089,104 @@
         <v>147</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D50">
-        <v>433.0444991846079</v>
+        <v>863.6885623511567</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
         <v>120</v>
       </c>
       <c r="D51">
+        <v>433.0444991846079</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52">
         <v>1451.211728244062</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" t="s">
+      <c r="B53" s="1"/>
+      <c r="C53" t="s">
         <v>123</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>8</v>
+      <c r="D53">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D56">
-        <v>28541.6875</v>
+        <v>14</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57">
+        <v>28541.6875</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" t="s">
+      <c r="B58" s="1"/>
+      <c r="C58" t="s">
         <v>123</v>
       </c>
-      <c r="D57">
-        <v>123.7740667045952</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>9</v>
+      <c r="D58">
+        <v>124.056159346881</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D61">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C62" t="s">
-        <v>120</v>
-      </c>
       <c r="D62">
-        <v>142.8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5191,8 +5194,11 @@
       <c r="B63" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="C63" t="s">
+        <v>120</v>
+      </c>
       <c r="D63">
-        <v>30</v>
+        <v>142.8</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -5200,11 +5206,8 @@
       <c r="B64" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C64" t="s">
-        <v>120</v>
-      </c>
       <c r="D64">
-        <v>130.2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -5212,8 +5215,11 @@
       <c r="B65" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="C65" t="s">
+        <v>120</v>
+      </c>
       <c r="D65">
-        <v>19</v>
+        <v>130.2</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -5221,11 +5227,8 @@
       <c r="B66" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C66" t="s">
-        <v>120</v>
-      </c>
       <c r="D66">
-        <v>357</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5233,8 +5236,11 @@
       <c r="B67" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="C67" t="s">
+        <v>120</v>
+      </c>
       <c r="D67">
-        <v>0</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -5242,11 +5248,8 @@
       <c r="B68" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C68" t="s">
-        <v>120</v>
-      </c>
       <c r="D68">
-        <v>259.1573099999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -5255,10 +5258,10 @@
         <v>157</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="D69">
-        <v>9624.423774272149</v>
+        <v>259.1573099999999</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -5267,31 +5270,44 @@
         <v>158</v>
       </c>
       <c r="C70" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70">
+        <v>9624.423774272149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C71" t="s">
         <v>121</v>
       </c>
-      <c r="D70">
+      <c r="D71">
         <v>1463</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="C71" t="s">
+      <c r="B72" s="1"/>
+      <c r="C72" t="s">
         <v>123</v>
       </c>
-      <c r="D71">
+      <c r="D72">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="A25:A38"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="A61:A70"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="A62:A71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
